--- a/ORG_SERIES.xlsx
+++ b/ORG_SERIES.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E68F8FD-32C2-4618-BCFA-DEC937D4725F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063BCCFD-BF5B-4F01-BEEA-96AEF5C1AD45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="815">
   <si>
     <t>ORG_SER_PK</t>
   </si>
@@ -2456,6 +2456,15 @@
   </si>
   <si>
     <t>ชุด นตต.ที่ 5 (ปาเซมัส)</t>
+  </si>
+  <si>
+    <t>ORG_SER_IDENOLD</t>
+  </si>
+  <si>
+    <t>ORG_SER_IDENNEW</t>
+  </si>
+  <si>
+    <t>ORG_SER_STATUS</t>
   </si>
 </sst>
 </file>
@@ -2773,21 +2782,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C748"/>
+  <dimension ref="A1:F748"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="D675" sqref="D675"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" customWidth="1"/>
-    <col min="2" max="2" width="42.1796875" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="11" width="21.54296875" customWidth="1"/>
+    <col min="4" max="11" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2797,8 +2806,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20000</v>
       </c>
@@ -2809,7 +2827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20001</v>
       </c>
@@ -2820,7 +2838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20002</v>
       </c>
@@ -2831,7 +2849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20003</v>
       </c>
@@ -2842,7 +2860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20004</v>
       </c>
@@ -2853,7 +2871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20005</v>
       </c>
@@ -2864,7 +2882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20006</v>
       </c>
@@ -2875,7 +2893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20007</v>
       </c>
@@ -2886,7 +2904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20008</v>
       </c>
@@ -2897,7 +2915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20009</v>
       </c>
@@ -2908,7 +2926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20010</v>
       </c>
@@ -2919,7 +2937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20011</v>
       </c>
@@ -2930,7 +2948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20012</v>
       </c>
@@ -2941,7 +2959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20013</v>
       </c>
@@ -2952,7 +2970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20014</v>
       </c>
@@ -2963,7 +2981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20015</v>
       </c>
@@ -2974,7 +2992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20016</v>
       </c>
@@ -2985,7 +3003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20017</v>
       </c>
@@ -2996,7 +3014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20018</v>
       </c>
@@ -3007,7 +3025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20019</v>
       </c>
@@ -3018,7 +3036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20020</v>
       </c>
@@ -3029,7 +3047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20021</v>
       </c>
@@ -3040,7 +3058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20022</v>
       </c>
@@ -3051,7 +3069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20023</v>
       </c>
@@ -3062,7 +3080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20024</v>
       </c>
@@ -3073,7 +3091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20025</v>
       </c>
@@ -3084,7 +3102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20026</v>
       </c>
@@ -3095,7 +3113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20027</v>
       </c>
@@ -3106,7 +3124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20028</v>
       </c>
@@ -3117,7 +3135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20029</v>
       </c>
@@ -3128,7 +3146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20030</v>
       </c>
@@ -3139,7 +3157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20031</v>
       </c>
@@ -3150,7 +3168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20032</v>
       </c>
@@ -3161,7 +3179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20033</v>
       </c>
@@ -3172,7 +3190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20034</v>
       </c>
@@ -3183,7 +3201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20035</v>
       </c>
@@ -3194,7 +3212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20036</v>
       </c>
@@ -3205,7 +3223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>20037</v>
       </c>
@@ -3216,7 +3234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>20038</v>
       </c>
@@ -3227,7 +3245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>20039</v>
       </c>
@@ -3238,7 +3256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>20040</v>
       </c>
@@ -3249,7 +3267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20041</v>
       </c>
@@ -3260,7 +3278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20042</v>
       </c>
@@ -3271,7 +3289,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20043</v>
       </c>
@@ -3282,7 +3300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>20044</v>
       </c>
@@ -3293,7 +3311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>20045</v>
       </c>
@@ -3304,7 +3322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20046</v>
       </c>
@@ -3315,7 +3333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20047</v>
       </c>
@@ -3326,7 +3344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20048</v>
       </c>
@@ -3337,7 +3355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>20049</v>
       </c>
@@ -3348,7 +3366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>20050</v>
       </c>
@@ -3359,7 +3377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>20051</v>
       </c>
@@ -3370,7 +3388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20052</v>
       </c>
@@ -3381,7 +3399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20053</v>
       </c>
@@ -3392,7 +3410,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20054</v>
       </c>
@@ -3403,7 +3421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>20055</v>
       </c>
@@ -3414,7 +3432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>20056</v>
       </c>
@@ -3425,7 +3443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20057</v>
       </c>
@@ -3436,7 +3454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>20058</v>
       </c>
@@ -3447,7 +3465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>20059</v>
       </c>
@@ -3458,7 +3476,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20060</v>
       </c>
@@ -3469,7 +3487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>20061</v>
       </c>
@@ -3480,7 +3498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>20062</v>
       </c>
@@ -3491,7 +3509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>20063</v>
       </c>
@@ -3502,7 +3520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>20064</v>
       </c>
@@ -3513,7 +3531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>20065</v>
       </c>
@@ -3524,7 +3542,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>20066</v>
       </c>
@@ -3535,7 +3553,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>20067</v>
       </c>
@@ -3546,7 +3564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>20068</v>
       </c>
@@ -3557,7 +3575,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>20069</v>
       </c>
@@ -3568,7 +3586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>20070</v>
       </c>
@@ -3579,7 +3597,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>20071</v>
       </c>
@@ -3590,7 +3608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>20072</v>
       </c>
@@ -3601,7 +3619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>20073</v>
       </c>
@@ -3612,7 +3630,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>20074</v>
       </c>
@@ -3623,7 +3641,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>20075</v>
       </c>
@@ -3634,7 +3652,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>20076</v>
       </c>
@@ -3645,7 +3663,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>20077</v>
       </c>
@@ -3656,7 +3674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>20078</v>
       </c>
@@ -3667,7 +3685,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20079</v>
       </c>
@@ -3678,7 +3696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>20080</v>
       </c>
@@ -3689,7 +3707,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>20081</v>
       </c>
@@ -3700,7 +3718,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>20082</v>
       </c>
@@ -3711,7 +3729,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>20083</v>
       </c>
@@ -3722,7 +3740,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>20084</v>
       </c>
@@ -3733,7 +3751,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>20085</v>
       </c>
@@ -3744,7 +3762,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>20086</v>
       </c>
@@ -3755,7 +3773,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>20087</v>
       </c>
@@ -3766,7 +3784,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>20088</v>
       </c>
@@ -3777,7 +3795,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>20089</v>
       </c>
@@ -3788,7 +3806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>20090</v>
       </c>
@@ -3799,7 +3817,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>20091</v>
       </c>
@@ -3810,7 +3828,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>20092</v>
       </c>
@@ -3821,7 +3839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>20093</v>
       </c>
@@ -3832,7 +3850,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>20094</v>
       </c>
@@ -3843,7 +3861,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>20095</v>
       </c>
@@ -3854,7 +3872,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>20096</v>
       </c>
@@ -3865,7 +3883,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>20097</v>
       </c>
@@ -3876,7 +3894,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>20098</v>
       </c>
@@ -3887,7 +3905,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>20099</v>
       </c>
@@ -3898,7 +3916,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>20100</v>
       </c>
@@ -3909,7 +3927,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>20101</v>
       </c>
@@ -3920,7 +3938,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20102</v>
       </c>
@@ -3931,7 +3949,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>20103</v>
       </c>
@@ -3942,7 +3960,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>20104</v>
       </c>
@@ -3953,7 +3971,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>20105</v>
       </c>
@@ -3964,7 +3982,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>20106</v>
       </c>
@@ -3975,7 +3993,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>20107</v>
       </c>
@@ -3986,7 +4004,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>20108</v>
       </c>
@@ -3997,7 +4015,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>20109</v>
       </c>
@@ -4008,7 +4026,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>20110</v>
       </c>
@@ -4019,7 +4037,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>20111</v>
       </c>
@@ -4030,7 +4048,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>20112</v>
       </c>
@@ -4041,7 +4059,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>20113</v>
       </c>
@@ -4052,7 +4070,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>20114</v>
       </c>
@@ -4063,7 +4081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>20115</v>
       </c>
@@ -4074,7 +4092,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>20116</v>
       </c>
@@ -4085,7 +4103,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>20117</v>
       </c>
@@ -4096,7 +4114,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>20118</v>
       </c>
@@ -4107,7 +4125,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>20119</v>
       </c>
@@ -4118,7 +4136,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>20120</v>
       </c>
@@ -4129,7 +4147,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>20121</v>
       </c>
@@ -4140,7 +4158,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>20122</v>
       </c>
@@ -4151,7 +4169,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>20123</v>
       </c>
@@ -4162,7 +4180,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>20124</v>
       </c>
@@ -4173,7 +4191,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>20125</v>
       </c>
@@ -4184,7 +4202,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>20126</v>
       </c>
@@ -4195,7 +4213,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>20127</v>
       </c>
@@ -4206,7 +4224,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>20128</v>
       </c>
@@ -4217,7 +4235,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>20129</v>
       </c>
@@ -4228,7 +4246,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>20130</v>
       </c>
@@ -4239,7 +4257,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>20131</v>
       </c>
@@ -4250,7 +4268,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>20132</v>
       </c>
@@ -4261,7 +4279,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>20133</v>
       </c>
@@ -4272,7 +4290,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>20134</v>
       </c>
@@ -4283,7 +4301,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>20135</v>
       </c>
@@ -4294,7 +4312,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>20136</v>
       </c>
@@ -4305,7 +4323,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>20137</v>
       </c>
@@ -4316,7 +4334,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>20138</v>
       </c>
@@ -4327,7 +4345,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>20139</v>
       </c>
@@ -4338,7 +4356,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>20140</v>
       </c>
@@ -4349,7 +4367,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>20141</v>
       </c>
@@ -4360,7 +4378,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>20142</v>
       </c>
@@ -4371,7 +4389,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>20143</v>
       </c>
@@ -4382,7 +4400,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>20144</v>
       </c>
@@ -4393,7 +4411,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>20145</v>
       </c>
@@ -4404,7 +4422,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>20146</v>
       </c>
@@ -4415,7 +4433,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>20147</v>
       </c>
@@ -4426,7 +4444,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>20148</v>
       </c>
@@ -4437,7 +4455,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>20149</v>
       </c>
@@ -4448,7 +4466,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>20150</v>
       </c>
@@ -4459,7 +4477,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>20151</v>
       </c>
@@ -4470,7 +4488,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>20152</v>
       </c>
@@ -4481,7 +4499,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>20153</v>
       </c>
@@ -4492,7 +4510,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>20154</v>
       </c>
@@ -4503,7 +4521,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>20155</v>
       </c>
@@ -4514,7 +4532,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>20156</v>
       </c>
@@ -4525,7 +4543,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>20157</v>
       </c>
@@ -4536,7 +4554,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>20158</v>
       </c>
@@ -4547,7 +4565,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>20159</v>
       </c>
@@ -4558,7 +4576,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>20160</v>
       </c>
@@ -4569,7 +4587,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>20161</v>
       </c>
@@ -4580,7 +4598,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>20162</v>
       </c>
@@ -4591,7 +4609,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>20163</v>
       </c>
@@ -4602,7 +4620,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>20164</v>
       </c>
@@ -4613,7 +4631,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>20165</v>
       </c>
@@ -4624,7 +4642,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>20166</v>
       </c>
@@ -4635,7 +4653,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>20167</v>
       </c>
@@ -4646,7 +4664,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>20168</v>
       </c>
@@ -4657,7 +4675,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>20169</v>
       </c>
@@ -4668,7 +4686,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>20170</v>
       </c>
@@ -4679,7 +4697,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>20171</v>
       </c>
@@ -4690,7 +4708,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>20172</v>
       </c>
@@ -4701,7 +4719,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>20173</v>
       </c>
@@ -4712,7 +4730,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>20174</v>
       </c>
@@ -4723,7 +4741,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>20175</v>
       </c>
@@ -4734,7 +4752,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>20176</v>
       </c>
@@ -4745,7 +4763,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>20177</v>
       </c>
@@ -4756,7 +4774,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>20178</v>
       </c>
@@ -4767,7 +4785,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>20179</v>
       </c>
@@ -4778,7 +4796,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>20180</v>
       </c>
@@ -4789,7 +4807,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>20181</v>
       </c>
@@ -4800,7 +4818,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>20182</v>
       </c>
@@ -4811,7 +4829,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>20183</v>
       </c>
@@ -4822,7 +4840,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>20184</v>
       </c>
@@ -4833,7 +4851,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>20185</v>
       </c>
@@ -4844,7 +4862,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>20186</v>
       </c>
@@ -4855,7 +4873,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>20187</v>
       </c>
@@ -4866,7 +4884,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>20188</v>
       </c>
@@ -4877,7 +4895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>20189</v>
       </c>
@@ -4888,7 +4906,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>20190</v>
       </c>
@@ -4899,7 +4917,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>20191</v>
       </c>
@@ -4910,7 +4928,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>20192</v>
       </c>
@@ -4921,7 +4939,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>20193</v>
       </c>
@@ -4932,7 +4950,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>20194</v>
       </c>
@@ -4943,7 +4961,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>20195</v>
       </c>
@@ -4954,7 +4972,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>20196</v>
       </c>
@@ -4965,7 +4983,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>20197</v>
       </c>
@@ -4976,7 +4994,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>20198</v>
       </c>
@@ -4987,7 +5005,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>20199</v>
       </c>
@@ -4998,7 +5016,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>20200</v>
       </c>
@@ -5009,7 +5027,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>20201</v>
       </c>
@@ -5020,7 +5038,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>20202</v>
       </c>
@@ -5031,7 +5049,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>20203</v>
       </c>
@@ -5042,7 +5060,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>20204</v>
       </c>
@@ -5053,7 +5071,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>20205</v>
       </c>
@@ -5064,7 +5082,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>20206</v>
       </c>
@@ -5075,7 +5093,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>20207</v>
       </c>
@@ -5086,7 +5104,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>20208</v>
       </c>
@@ -5097,7 +5115,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>20209</v>
       </c>
@@ -5108,7 +5126,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>20210</v>
       </c>
@@ -5119,7 +5137,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>20211</v>
       </c>
@@ -5130,7 +5148,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>20212</v>
       </c>
@@ -5141,7 +5159,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>20213</v>
       </c>
@@ -5152,7 +5170,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>20214</v>
       </c>
@@ -5163,7 +5181,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>20215</v>
       </c>
@@ -5174,7 +5192,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>20216</v>
       </c>
@@ -5185,7 +5203,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>20217</v>
       </c>
@@ -5196,7 +5214,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>20218</v>
       </c>
@@ -5207,7 +5225,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>20219</v>
       </c>
@@ -5218,7 +5236,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>20220</v>
       </c>
@@ -5229,7 +5247,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>20221</v>
       </c>
@@ -5240,7 +5258,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>20222</v>
       </c>
@@ -5251,7 +5269,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>20223</v>
       </c>
@@ -5262,7 +5280,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>20224</v>
       </c>
@@ -5273,7 +5291,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>20225</v>
       </c>
@@ -5284,7 +5302,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>20226</v>
       </c>
@@ -5295,7 +5313,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>20227</v>
       </c>
@@ -5306,7 +5324,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>20228</v>
       </c>
@@ -5317,7 +5335,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>20229</v>
       </c>
@@ -5328,7 +5346,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>20230</v>
       </c>
@@ -5339,7 +5357,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>20231</v>
       </c>
@@ -5350,7 +5368,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>20232</v>
       </c>
@@ -5361,7 +5379,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>20233</v>
       </c>
@@ -5372,7 +5390,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>20234</v>
       </c>
@@ -5383,7 +5401,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>20235</v>
       </c>
@@ -5394,7 +5412,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>20236</v>
       </c>
@@ -5405,7 +5423,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>20237</v>
       </c>
@@ -5416,7 +5434,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>20238</v>
       </c>
@@ -5427,7 +5445,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>20239</v>
       </c>
@@ -5438,7 +5456,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>20240</v>
       </c>
@@ -5449,7 +5467,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>20241</v>
       </c>
@@ -5460,7 +5478,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>20242</v>
       </c>
@@ -5471,7 +5489,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>20243</v>
       </c>
@@ -5482,7 +5500,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>20244</v>
       </c>
@@ -5493,7 +5511,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>20245</v>
       </c>
@@ -5504,7 +5522,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>20246</v>
       </c>
@@ -5515,7 +5533,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>20247</v>
       </c>
@@ -5526,7 +5544,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>20248</v>
       </c>
@@ -5537,7 +5555,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>20249</v>
       </c>
@@ -5548,7 +5566,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>20250</v>
       </c>
@@ -5559,7 +5577,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>20251</v>
       </c>
@@ -5570,7 +5588,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>20252</v>
       </c>
@@ -5581,7 +5599,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>20253</v>
       </c>
@@ -5592,7 +5610,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>20254</v>
       </c>
@@ -5603,7 +5621,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>20255</v>
       </c>
@@ -5614,7 +5632,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>20256</v>
       </c>
@@ -5625,7 +5643,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>20257</v>
       </c>
@@ -5636,7 +5654,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>20258</v>
       </c>
@@ -5647,7 +5665,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>20259</v>
       </c>
@@ -5658,7 +5676,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>20260</v>
       </c>
@@ -5669,7 +5687,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>20261</v>
       </c>
@@ -5680,7 +5698,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>20262</v>
       </c>
@@ -5691,7 +5709,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>20263</v>
       </c>
@@ -5702,7 +5720,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>20264</v>
       </c>
@@ -5713,7 +5731,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>20265</v>
       </c>
@@ -5724,7 +5742,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>20266</v>
       </c>
@@ -5735,7 +5753,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>20267</v>
       </c>
@@ -5746,7 +5764,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>20268</v>
       </c>
@@ -5757,7 +5775,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>20269</v>
       </c>
@@ -5768,7 +5786,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>20270</v>
       </c>
@@ -5779,7 +5797,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>20271</v>
       </c>
@@ -5790,7 +5808,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>20272</v>
       </c>
@@ -5801,7 +5819,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>20273</v>
       </c>
@@ -5812,7 +5830,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>20274</v>
       </c>
@@ -5823,7 +5841,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>20275</v>
       </c>
@@ -5834,7 +5852,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>20276</v>
       </c>
@@ -5845,7 +5863,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>20277</v>
       </c>
@@ -5856,7 +5874,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>20278</v>
       </c>
@@ -5867,7 +5885,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>20279</v>
       </c>
@@ -5878,7 +5896,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>20280</v>
       </c>
@@ -5889,7 +5907,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>20281</v>
       </c>
@@ -5900,7 +5918,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>20282</v>
       </c>
@@ -5911,7 +5929,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>20283</v>
       </c>
@@ -5922,7 +5940,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>20284</v>
       </c>
@@ -5933,7 +5951,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>20285</v>
       </c>
@@ -5944,7 +5962,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>20286</v>
       </c>
@@ -5955,7 +5973,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>20287</v>
       </c>
@@ -5966,7 +5984,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>20288</v>
       </c>
@@ -5977,7 +5995,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>20289</v>
       </c>
@@ -5988,7 +6006,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>20290</v>
       </c>
@@ -5999,7 +6017,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>20291</v>
       </c>
@@ -6010,7 +6028,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>20292</v>
       </c>
@@ -6021,7 +6039,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>20293</v>
       </c>
@@ -6032,7 +6050,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>20294</v>
       </c>
@@ -6043,7 +6061,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>20295</v>
       </c>
@@ -6054,7 +6072,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>20296</v>
       </c>
@@ -6065,7 +6083,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>20297</v>
       </c>
@@ -6076,7 +6094,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>20298</v>
       </c>
@@ -6087,7 +6105,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>20299</v>
       </c>
@@ -6098,7 +6116,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>20300</v>
       </c>
@@ -6109,7 +6127,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>20301</v>
       </c>
@@ -6120,7 +6138,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>20302</v>
       </c>
@@ -6131,7 +6149,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>20303</v>
       </c>
@@ -6142,7 +6160,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>20304</v>
       </c>
@@ -6153,7 +6171,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>20305</v>
       </c>
@@ -6164,7 +6182,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>20306</v>
       </c>
@@ -6175,7 +6193,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>20307</v>
       </c>
@@ -6186,7 +6204,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>20308</v>
       </c>
@@ -6197,7 +6215,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>20309</v>
       </c>
@@ -6208,7 +6226,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>20310</v>
       </c>
@@ -6219,7 +6237,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>20311</v>
       </c>
@@ -6230,7 +6248,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>20312</v>
       </c>
@@ -6241,7 +6259,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>20313</v>
       </c>
@@ -6252,7 +6270,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>20314</v>
       </c>
@@ -6263,7 +6281,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>20315</v>
       </c>
@@ -6274,7 +6292,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>20316</v>
       </c>
@@ -6285,7 +6303,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>20317</v>
       </c>
@@ -6296,7 +6314,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>20318</v>
       </c>
@@ -6307,7 +6325,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>20319</v>
       </c>
@@ -6318,7 +6336,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>20320</v>
       </c>
@@ -6329,7 +6347,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>20321</v>
       </c>
@@ -6340,7 +6358,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>20322</v>
       </c>
@@ -6351,7 +6369,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>20323</v>
       </c>
@@ -6362,7 +6380,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>20324</v>
       </c>
@@ -6373,7 +6391,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>20325</v>
       </c>
@@ -6384,7 +6402,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>20326</v>
       </c>
@@ -6395,7 +6413,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>20327</v>
       </c>
@@ -6406,7 +6424,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>20328</v>
       </c>
@@ -6417,7 +6435,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>20329</v>
       </c>
@@ -6428,7 +6446,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>20330</v>
       </c>
@@ -6439,7 +6457,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>20331</v>
       </c>
@@ -6450,7 +6468,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>20332</v>
       </c>
@@ -6461,7 +6479,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>20333</v>
       </c>
@@ -6472,7 +6490,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>20334</v>
       </c>
@@ -6483,7 +6501,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>20335</v>
       </c>
@@ -6494,7 +6512,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>20336</v>
       </c>
@@ -6505,7 +6523,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>20337</v>
       </c>
@@ -6516,7 +6534,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>20338</v>
       </c>
@@ -6527,7 +6545,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>20339</v>
       </c>
@@ -6538,7 +6556,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>20340</v>
       </c>
@@ -6549,7 +6567,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>20341</v>
       </c>
@@ -6560,7 +6578,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>20342</v>
       </c>
@@ -6571,7 +6589,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>20343</v>
       </c>
@@ -6582,7 +6600,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>20344</v>
       </c>
@@ -6593,7 +6611,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>20345</v>
       </c>
@@ -6604,7 +6622,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>20346</v>
       </c>
@@ -6615,7 +6633,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>20347</v>
       </c>
@@ -6626,7 +6644,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>20348</v>
       </c>
@@ -6637,7 +6655,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>20349</v>
       </c>
@@ -6648,7 +6666,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>20350</v>
       </c>
@@ -6659,7 +6677,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>20351</v>
       </c>
@@ -6670,7 +6688,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>20352</v>
       </c>
@@ -6681,7 +6699,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>20353</v>
       </c>
@@ -6692,7 +6710,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>20354</v>
       </c>
@@ -6700,7 +6718,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>20355</v>
       </c>
@@ -6711,7 +6729,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>20356</v>
       </c>
@@ -6722,7 +6740,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>20357</v>
       </c>
@@ -6733,7 +6751,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>20358</v>
       </c>
@@ -6744,7 +6762,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>20359</v>
       </c>
@@ -6755,7 +6773,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>20360</v>
       </c>
@@ -6766,7 +6784,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>20361</v>
       </c>
@@ -6777,7 +6795,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>20362</v>
       </c>
@@ -6788,7 +6806,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>20363</v>
       </c>
@@ -6799,7 +6817,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>20364</v>
       </c>
@@ -6810,7 +6828,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>20365</v>
       </c>
@@ -6821,7 +6839,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>20366</v>
       </c>
@@ -6832,7 +6850,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>20367</v>
       </c>
@@ -6843,7 +6861,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>20368</v>
       </c>
@@ -6854,7 +6872,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>20369</v>
       </c>
@@ -6865,7 +6883,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>20370</v>
       </c>
@@ -6876,7 +6894,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>20371</v>
       </c>
@@ -6887,7 +6905,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>20372</v>
       </c>
@@ -6898,7 +6916,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>20373</v>
       </c>
@@ -6909,7 +6927,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>20374</v>
       </c>
@@ -6920,7 +6938,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>20375</v>
       </c>
@@ -6931,7 +6949,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>20376</v>
       </c>
@@ -6942,7 +6960,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>20377</v>
       </c>
@@ -6953,7 +6971,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>20378</v>
       </c>
@@ -6964,7 +6982,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>20379</v>
       </c>
@@ -6975,7 +6993,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>20380</v>
       </c>
@@ -6986,7 +7004,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>20381</v>
       </c>
@@ -6997,7 +7015,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>20382</v>
       </c>
@@ -7008,7 +7026,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>20383</v>
       </c>
@@ -7019,7 +7037,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>20384</v>
       </c>
@@ -7030,7 +7048,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>20385</v>
       </c>
@@ -7041,7 +7059,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>20386</v>
       </c>
@@ -7052,7 +7070,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>20387</v>
       </c>
@@ -7063,7 +7081,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>20388</v>
       </c>
@@ -7074,7 +7092,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>20389</v>
       </c>
@@ -7085,7 +7103,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>20390</v>
       </c>
@@ -7096,7 +7114,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>20391</v>
       </c>
@@ -7107,7 +7125,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>20392</v>
       </c>
@@ -7118,7 +7136,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>20393</v>
       </c>
@@ -7129,7 +7147,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>20394</v>
       </c>
@@ -7140,7 +7158,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>20395</v>
       </c>
@@ -7151,7 +7169,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>20396</v>
       </c>
@@ -7162,7 +7180,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>20397</v>
       </c>
@@ -7173,7 +7191,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>20398</v>
       </c>
@@ -7184,7 +7202,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>20399</v>
       </c>
@@ -7195,7 +7213,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>20400</v>
       </c>
@@ -7206,7 +7224,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>20401</v>
       </c>
@@ -7217,7 +7235,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>20402</v>
       </c>
@@ -7228,7 +7246,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>20403</v>
       </c>
@@ -7239,7 +7257,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>20404</v>
       </c>
@@ -7250,7 +7268,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>20405</v>
       </c>
@@ -7261,7 +7279,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>20406</v>
       </c>
@@ -7272,7 +7290,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>20407</v>
       </c>
@@ -7283,7 +7301,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>20408</v>
       </c>
@@ -7294,7 +7312,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>20409</v>
       </c>
@@ -7305,7 +7323,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>20410</v>
       </c>
@@ -7316,7 +7334,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>20411</v>
       </c>
@@ -7327,7 +7345,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>20412</v>
       </c>
@@ -7338,7 +7356,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>20413</v>
       </c>
@@ -7349,7 +7367,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>20414</v>
       </c>
@@ -7360,7 +7378,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>20415</v>
       </c>
@@ -7371,7 +7389,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>20416</v>
       </c>
@@ -7382,7 +7400,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>20417</v>
       </c>
@@ -7393,7 +7411,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>20418</v>
       </c>
@@ -7404,7 +7422,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>20419</v>
       </c>
@@ -7415,7 +7433,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>20420</v>
       </c>
@@ -7426,7 +7444,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>20421</v>
       </c>
@@ -7437,7 +7455,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>20422</v>
       </c>
@@ -7448,7 +7466,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>20423</v>
       </c>
@@ -7459,7 +7477,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>20424</v>
       </c>
@@ -7470,7 +7488,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>20425</v>
       </c>
@@ -7481,7 +7499,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>20426</v>
       </c>
@@ -7492,7 +7510,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>20427</v>
       </c>
@@ -7503,7 +7521,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>20428</v>
       </c>
@@ -7514,7 +7532,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>20429</v>
       </c>
@@ -7525,7 +7543,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>20430</v>
       </c>
@@ -7536,7 +7554,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>20431</v>
       </c>
@@ -7547,7 +7565,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>20432</v>
       </c>
@@ -7558,7 +7576,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>20433</v>
       </c>
@@ -7569,7 +7587,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>20434</v>
       </c>
@@ -7580,7 +7598,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>20435</v>
       </c>
@@ -7591,7 +7609,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>20436</v>
       </c>
@@ -7602,7 +7620,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>20437</v>
       </c>
@@ -7613,7 +7631,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>20438</v>
       </c>
@@ -7624,7 +7642,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>20439</v>
       </c>
@@ -7635,7 +7653,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>20440</v>
       </c>
@@ -7646,7 +7664,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>20441</v>
       </c>
@@ -7657,7 +7675,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>20442</v>
       </c>
@@ -7668,7 +7686,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>20443</v>
       </c>
@@ -7679,7 +7697,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>20444</v>
       </c>
@@ -7690,7 +7708,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>20445</v>
       </c>
@@ -7701,7 +7719,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>20446</v>
       </c>
@@ -7712,7 +7730,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>20447</v>
       </c>
@@ -7723,7 +7741,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>20448</v>
       </c>
@@ -7734,7 +7752,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>20449</v>
       </c>
@@ -7745,7 +7763,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>20450</v>
       </c>
@@ -7756,7 +7774,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>20451</v>
       </c>
@@ -7767,7 +7785,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>20452</v>
       </c>
@@ -7778,7 +7796,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>20453</v>
       </c>
@@ -7789,7 +7807,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>20454</v>
       </c>
@@ -7800,7 +7818,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>20455</v>
       </c>
@@ -7811,7 +7829,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>20456</v>
       </c>
@@ -7822,7 +7840,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>20457</v>
       </c>
@@ -7833,7 +7851,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>20458</v>
       </c>
@@ -7844,7 +7862,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>20459</v>
       </c>
@@ -7855,7 +7873,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>20460</v>
       </c>
@@ -7866,7 +7884,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>20461</v>
       </c>
@@ -7877,7 +7895,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>20462</v>
       </c>
@@ -7888,7 +7906,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>20463</v>
       </c>
@@ -7899,7 +7917,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>20464</v>
       </c>
@@ -7910,7 +7928,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>20465</v>
       </c>
@@ -7921,7 +7939,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>20466</v>
       </c>
@@ -7932,7 +7950,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>20467</v>
       </c>
@@ -7943,7 +7961,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>20468</v>
       </c>
@@ -7954,7 +7972,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>20469</v>
       </c>
@@ -7965,7 +7983,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>20470</v>
       </c>
@@ -7976,7 +7994,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>20471</v>
       </c>
@@ -7987,7 +8005,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>20472</v>
       </c>
@@ -7998,7 +8016,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>20473</v>
       </c>
@@ -8009,7 +8027,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>20474</v>
       </c>
@@ -8020,7 +8038,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>20475</v>
       </c>
@@ -8031,7 +8049,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>20476</v>
       </c>
@@ -8042,7 +8060,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>20477</v>
       </c>
@@ -8053,7 +8071,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>20478</v>
       </c>
@@ -8064,7 +8082,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>20479</v>
       </c>
@@ -8075,7 +8093,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>20480</v>
       </c>
@@ -8086,7 +8104,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>20481</v>
       </c>
@@ -8097,7 +8115,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>20482</v>
       </c>
@@ -8108,7 +8126,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>20483</v>
       </c>
@@ -8119,7 +8137,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>20484</v>
       </c>
@@ -8130,7 +8148,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>20485</v>
       </c>
@@ -8141,7 +8159,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>20486</v>
       </c>
@@ -8152,7 +8170,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>20487</v>
       </c>
@@ -8163,7 +8181,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>20488</v>
       </c>
@@ -8174,7 +8192,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>20489</v>
       </c>
@@ -8185,7 +8203,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>20490</v>
       </c>
@@ -8196,7 +8214,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>20491</v>
       </c>
@@ -8207,7 +8225,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>20492</v>
       </c>
@@ -8218,7 +8236,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>20493</v>
       </c>
@@ -8229,7 +8247,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>20494</v>
       </c>
@@ -8240,7 +8258,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>20495</v>
       </c>
@@ -8251,7 +8269,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>20496</v>
       </c>
@@ -8262,7 +8280,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>20497</v>
       </c>
@@ -8273,7 +8291,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>20498</v>
       </c>
@@ -8284,7 +8302,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>20499</v>
       </c>
@@ -8295,7 +8313,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>20500</v>
       </c>
@@ -8306,7 +8324,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>20501</v>
       </c>
@@ -8317,7 +8335,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>20502</v>
       </c>
@@ -8328,7 +8346,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>20503</v>
       </c>
@@ -8339,7 +8357,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>20504</v>
       </c>
@@ -8350,7 +8368,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>20505</v>
       </c>
@@ -8361,7 +8379,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>20506</v>
       </c>
@@ -8372,7 +8390,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>20507</v>
       </c>
@@ -8383,7 +8401,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>20508</v>
       </c>
@@ -8394,7 +8412,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>20509</v>
       </c>
@@ -8405,7 +8423,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>20510</v>
       </c>
@@ -8416,7 +8434,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>20511</v>
       </c>
@@ -8427,7 +8445,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>20512</v>
       </c>
@@ -8438,7 +8456,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>20513</v>
       </c>
@@ -8449,7 +8467,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>20514</v>
       </c>
@@ -8460,7 +8478,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>20515</v>
       </c>
@@ -8471,7 +8489,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>20516</v>
       </c>
@@ -8482,7 +8500,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>20517</v>
       </c>
@@ -8493,7 +8511,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>20518</v>
       </c>
@@ -8504,7 +8522,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>20519</v>
       </c>
@@ -8515,7 +8533,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>20520</v>
       </c>
@@ -8526,7 +8544,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>20521</v>
       </c>
@@ -8537,7 +8555,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>20522</v>
       </c>
@@ -8548,7 +8566,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>20523</v>
       </c>
@@ -8559,7 +8577,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>20524</v>
       </c>
@@ -8567,7 +8585,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>20525</v>
       </c>
@@ -8578,7 +8596,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>20526</v>
       </c>
@@ -8589,7 +8607,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>20527</v>
       </c>
@@ -8600,7 +8618,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>20528</v>
       </c>
@@ -8611,7 +8629,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>20529</v>
       </c>
@@ -8622,7 +8640,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>20530</v>
       </c>
@@ -8633,7 +8651,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>20531</v>
       </c>
@@ -8644,7 +8662,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>20532</v>
       </c>
@@ -8655,7 +8673,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>20533</v>
       </c>
@@ -8666,7 +8684,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>20534</v>
       </c>
@@ -8677,7 +8695,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>20535</v>
       </c>
@@ -8688,7 +8706,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>20536</v>
       </c>
@@ -8699,7 +8717,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>20537</v>
       </c>
@@ -8710,7 +8728,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>20538</v>
       </c>
@@ -8721,7 +8739,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>20539</v>
       </c>
@@ -8732,7 +8750,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>20540</v>
       </c>
@@ -8743,7 +8761,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>20541</v>
       </c>
@@ -8754,7 +8772,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>20542</v>
       </c>
@@ -8765,7 +8783,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>20543</v>
       </c>
@@ -8776,7 +8794,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>20544</v>
       </c>
@@ -8787,7 +8805,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>20545</v>
       </c>
@@ -8798,7 +8816,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>20546</v>
       </c>
@@ -8809,7 +8827,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>20547</v>
       </c>
@@ -8820,7 +8838,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>20548</v>
       </c>
@@ -8831,7 +8849,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>20549</v>
       </c>
@@ -8842,7 +8860,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>20550</v>
       </c>
@@ -8853,7 +8871,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>20551</v>
       </c>
@@ -8864,7 +8882,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>20552</v>
       </c>
@@ -8875,7 +8893,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>20553</v>
       </c>
@@ -8886,7 +8904,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>20554</v>
       </c>
@@ -8897,7 +8915,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>20555</v>
       </c>
@@ -8908,7 +8926,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>20556</v>
       </c>
@@ -8919,7 +8937,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>20557</v>
       </c>
@@ -8930,7 +8948,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>20558</v>
       </c>
@@ -8941,7 +8959,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>20559</v>
       </c>
@@ -8952,7 +8970,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>20560</v>
       </c>
@@ -8963,7 +8981,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>20561</v>
       </c>
@@ -8974,7 +8992,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>20562</v>
       </c>
@@ -8985,7 +9003,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>20563</v>
       </c>
@@ -8996,7 +9014,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>20564</v>
       </c>
@@ -9007,7 +9025,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>20565</v>
       </c>
@@ -9018,7 +9036,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>20566</v>
       </c>
@@ -9029,7 +9047,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>20567</v>
       </c>
@@ -9040,7 +9058,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>20568</v>
       </c>
@@ -9051,7 +9069,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>20569</v>
       </c>
@@ -9062,7 +9080,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>20570</v>
       </c>
@@ -9073,7 +9091,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>20571</v>
       </c>
@@ -9084,7 +9102,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>20572</v>
       </c>
@@ -9095,7 +9113,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>20573</v>
       </c>
@@ -9106,7 +9124,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>20574</v>
       </c>
@@ -9117,7 +9135,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>20575</v>
       </c>
@@ -9128,7 +9146,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>20576</v>
       </c>
@@ -9139,7 +9157,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>20577</v>
       </c>
@@ -9150,7 +9168,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>20578</v>
       </c>
@@ -9161,7 +9179,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>20579</v>
       </c>
@@ -9172,7 +9190,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>20580</v>
       </c>
@@ -9183,7 +9201,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>20581</v>
       </c>
@@ -9194,7 +9212,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>20582</v>
       </c>
@@ -9205,7 +9223,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>20583</v>
       </c>
@@ -9216,7 +9234,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>20584</v>
       </c>
@@ -9227,7 +9245,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>20585</v>
       </c>
@@ -9238,7 +9256,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>20586</v>
       </c>
@@ -9249,7 +9267,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>20587</v>
       </c>
@@ -9260,7 +9278,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>20588</v>
       </c>
@@ -9271,7 +9289,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>20589</v>
       </c>
@@ -9282,7 +9300,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>20590</v>
       </c>
@@ -9293,7 +9311,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>20591</v>
       </c>
@@ -9304,7 +9322,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>20592</v>
       </c>
@@ -9315,7 +9333,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>20593</v>
       </c>
@@ -9326,7 +9344,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>20594</v>
       </c>
@@ -9337,7 +9355,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>20595</v>
       </c>
@@ -9345,7 +9363,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>20596</v>
       </c>
@@ -9356,7 +9374,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>20597</v>
       </c>
@@ -9367,7 +9385,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>20598</v>
       </c>
@@ -9378,7 +9396,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>20599</v>
       </c>
@@ -9389,7 +9407,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>20600</v>
       </c>
@@ -9400,7 +9418,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>20601</v>
       </c>
@@ -9411,7 +9429,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>20602</v>
       </c>
@@ -9422,7 +9440,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>20603</v>
       </c>
@@ -9433,7 +9451,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>20604</v>
       </c>
@@ -9444,7 +9462,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>20605</v>
       </c>
@@ -9455,7 +9473,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>20606</v>
       </c>
@@ -9466,7 +9484,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>20607</v>
       </c>
@@ -9477,7 +9495,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>20608</v>
       </c>
@@ -9488,7 +9506,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>20609</v>
       </c>
@@ -9499,7 +9517,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>20610</v>
       </c>
@@ -9510,7 +9528,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>20611</v>
       </c>
@@ -9521,7 +9539,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>20612</v>
       </c>
@@ -9532,7 +9550,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>20613</v>
       </c>
@@ -9543,7 +9561,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>20614</v>
       </c>
@@ -9554,7 +9572,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>20615</v>
       </c>
@@ -9565,7 +9583,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>20616</v>
       </c>
@@ -9576,7 +9594,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>20617</v>
       </c>
@@ -9587,7 +9605,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>20618</v>
       </c>
@@ -9598,7 +9616,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>20619</v>
       </c>
@@ -9609,7 +9627,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>20620</v>
       </c>
@@ -9620,7 +9638,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>20621</v>
       </c>
@@ -9631,7 +9649,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>20622</v>
       </c>
@@ -9642,7 +9660,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>20623</v>
       </c>
@@ -9653,7 +9671,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>20624</v>
       </c>
@@ -9664,7 +9682,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>20625</v>
       </c>
@@ -9675,7 +9693,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>20626</v>
       </c>
@@ -9686,7 +9704,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>20627</v>
       </c>
@@ -9697,7 +9715,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>20628</v>
       </c>
@@ -9708,7 +9726,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>20629</v>
       </c>
@@ -9719,7 +9737,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>20630</v>
       </c>
@@ -9730,7 +9748,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>20631</v>
       </c>
@@ -9741,7 +9759,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>20632</v>
       </c>
@@ -9752,7 +9770,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>20633</v>
       </c>
@@ -9763,7 +9781,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>20634</v>
       </c>
@@ -9774,7 +9792,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>20635</v>
       </c>
@@ -9785,7 +9803,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>20636</v>
       </c>
@@ -9796,7 +9814,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>20637</v>
       </c>
@@ -9807,7 +9825,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>20638</v>
       </c>
@@ -9818,7 +9836,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>20639</v>
       </c>
@@ -9829,7 +9847,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>20640</v>
       </c>
@@ -9840,7 +9858,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>20641</v>
       </c>
@@ -9851,7 +9869,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>20642</v>
       </c>
@@ -9862,7 +9880,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>20643</v>
       </c>
@@ -9873,7 +9891,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>20644</v>
       </c>
@@ -9884,7 +9902,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>20645</v>
       </c>
@@ -9895,7 +9913,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>20646</v>
       </c>
@@ -9906,7 +9924,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>20647</v>
       </c>
@@ -9917,7 +9935,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>20648</v>
       </c>
@@ -9928,7 +9946,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>20649</v>
       </c>
@@ -9939,7 +9957,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>20650</v>
       </c>
@@ -9950,7 +9968,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>20651</v>
       </c>
@@ -9961,7 +9979,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>20652</v>
       </c>
@@ -9972,7 +9990,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>20653</v>
       </c>
@@ -9983,7 +10001,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>20654</v>
       </c>
@@ -9994,7 +10012,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>20655</v>
       </c>
@@ -10005,7 +10023,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>20656</v>
       </c>
@@ -10016,7 +10034,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>20657</v>
       </c>
@@ -10027,7 +10045,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>20658</v>
       </c>
@@ -10038,7 +10056,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>20659</v>
       </c>
@@ -10049,7 +10067,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>20660</v>
       </c>
@@ -10060,7 +10078,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>20661</v>
       </c>
@@ -10071,7 +10089,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>20662</v>
       </c>
@@ -10082,7 +10100,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>20663</v>
       </c>
@@ -10093,7 +10111,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>20664</v>
       </c>
@@ -10104,7 +10122,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>20665</v>
       </c>
@@ -10115,7 +10133,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>20666</v>
       </c>
@@ -10126,7 +10144,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>20667</v>
       </c>
@@ -10137,7 +10155,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>20668</v>
       </c>
@@ -10148,7 +10166,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>20669</v>
       </c>
@@ -10159,7 +10177,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>20670</v>
       </c>
@@ -10170,7 +10188,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>20671</v>
       </c>
@@ -10181,7 +10199,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>20672</v>
       </c>
@@ -10192,7 +10210,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>20673</v>
       </c>
@@ -10203,7 +10221,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>20674</v>
       </c>
@@ -10214,7 +10232,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>20675</v>
       </c>
@@ -10225,7 +10243,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>20676</v>
       </c>
@@ -10236,7 +10254,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>20677</v>
       </c>
@@ -10247,7 +10265,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>20678</v>
       </c>
@@ -10258,7 +10276,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>20679</v>
       </c>
@@ -10269,7 +10287,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>20680</v>
       </c>
@@ -10280,7 +10298,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>20681</v>
       </c>
@@ -10291,7 +10309,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>20682</v>
       </c>
@@ -10302,7 +10320,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>20683</v>
       </c>
@@ -10313,7 +10331,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>20684</v>
       </c>
@@ -10324,7 +10342,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>20685</v>
       </c>
@@ -10335,7 +10353,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>20686</v>
       </c>
@@ -10346,7 +10364,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>20687</v>
       </c>
@@ -10357,7 +10375,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>20688</v>
       </c>
@@ -10368,7 +10386,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>20689</v>
       </c>
@@ -10379,7 +10397,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>20690</v>
       </c>
@@ -10390,7 +10408,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>20691</v>
       </c>
@@ -10401,7 +10419,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>20692</v>
       </c>
@@ -10412,7 +10430,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>20693</v>
       </c>
@@ -10423,7 +10441,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>20694</v>
       </c>
@@ -10434,7 +10452,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>20695</v>
       </c>
@@ -10445,7 +10463,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>20696</v>
       </c>
@@ -10456,7 +10474,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>20697</v>
       </c>
@@ -10467,7 +10485,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>20698</v>
       </c>
@@ -10478,7 +10496,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>20699</v>
       </c>
@@ -10489,7 +10507,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>20700</v>
       </c>
@@ -10500,7 +10518,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>20701</v>
       </c>
@@ -10511,7 +10529,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>20702</v>
       </c>
@@ -10522,7 +10540,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>20703</v>
       </c>
@@ -10533,7 +10551,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>20704</v>
       </c>
@@ -10544,7 +10562,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>20705</v>
       </c>
@@ -10555,7 +10573,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>20706</v>
       </c>
@@ -10566,7 +10584,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>20707</v>
       </c>
@@ -10577,7 +10595,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>20708</v>
       </c>
@@ -10588,7 +10606,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>20709</v>
       </c>
@@ -10599,7 +10617,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>20710</v>
       </c>
@@ -10610,7 +10628,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>20711</v>
       </c>
@@ -10621,7 +10639,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>20712</v>
       </c>
@@ -10632,7 +10650,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>20713</v>
       </c>
@@ -10643,7 +10661,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>20714</v>
       </c>
@@ -10654,7 +10672,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>20715</v>
       </c>
@@ -10665,7 +10683,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>20716</v>
       </c>
@@ -10676,7 +10694,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>20717</v>
       </c>
@@ -10687,7 +10705,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>20718</v>
       </c>
@@ -10698,7 +10716,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>20719</v>
       </c>
@@ -10709,7 +10727,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>20720</v>
       </c>
@@ -10720,7 +10738,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>20721</v>
       </c>
@@ -10731,7 +10749,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>20722</v>
       </c>
@@ -10742,7 +10760,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>20723</v>
       </c>
@@ -10753,7 +10771,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>20724</v>
       </c>
@@ -10764,7 +10782,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>20725</v>
       </c>
@@ -10775,7 +10793,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>20726</v>
       </c>
@@ -10786,7 +10804,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>20727</v>
       </c>
@@ -10797,7 +10815,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>20728</v>
       </c>
@@ -10808,7 +10826,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>20729</v>
       </c>
@@ -10819,7 +10837,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>20730</v>
       </c>
@@ -10830,7 +10848,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>20731</v>
       </c>
@@ -10841,7 +10859,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>20732</v>
       </c>
@@ -10852,7 +10870,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>20733</v>
       </c>
@@ -10863,7 +10881,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>20734</v>
       </c>
@@ -10874,7 +10892,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>20735</v>
       </c>
@@ -10885,7 +10903,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>20736</v>
       </c>
@@ -10896,7 +10914,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>20737</v>
       </c>
@@ -10907,7 +10925,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>20738</v>
       </c>
@@ -10918,7 +10936,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>20739</v>
       </c>
@@ -10929,7 +10947,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>20740</v>
       </c>
@@ -10940,7 +10958,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>20741</v>
       </c>
@@ -10951,7 +10969,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>20742</v>
       </c>
@@ -10962,7 +10980,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>20743</v>
       </c>
@@ -10973,7 +10991,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>20744</v>
       </c>
@@ -10984,7 +11002,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>20745</v>
       </c>
@@ -10995,7 +11013,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>20746</v>
       </c>
